--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Account Name</t>
   </si>
@@ -53,6 +53,34 @@
   </si>
   <si>
     <t>MutantXavier</t>
+  </si>
+  <si>
+    <t>Colossus</t>
+  </si>
+  <si>
+    <t>Al Wylie
+1800 Provident Lane
+Round Rock, Texas
+78664</t>
+  </si>
+  <si>
+    <t>Paul Lazarou  4 Struan avenue Endeavour Hills
+Melbourne Victoria Australia 3802.</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>SeanRabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean D. Rabindranauth
+Director, IT &amp; Patient Account
+Moorestown VNA &amp; Hospice
+300 Harper Drive
+Moorestown, New Jersey
+08057
+</t>
   </si>
 </sst>
 </file>
@@ -405,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +488,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.collectionstash.com/stashs/view/DarthWaller"/>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Account Name</t>
   </si>
@@ -46,10 +46,6 @@
 513 E. 4th Ave.
 St. John, Kansas
 67576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276 millbury avenue
-la puente CA 91746 </t>
   </si>
   <si>
     <t>MutantXavier</t>
@@ -81,6 +77,13 @@
 Moorestown, New Jersey
 08057
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Rogero, 1276 millbury avenue
+la puente CA 91746 </t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +466,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -471,6 +477,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -479,37 +488,49 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Account Name</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>BuffyGirl</t>
+  </si>
+  <si>
+    <t>JC Kovacs
+12349 Metric Blvd #1330
+Austin, TX
+78758</t>
+  </si>
+  <si>
+    <t>King Darkness</t>
+  </si>
+  <si>
+    <t>Chase Valdez
+2418 East Highway 66
+PMB 539
+Gallup NM 87301</t>
   </si>
 </sst>
 </file>
@@ -436,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +539,9 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -530,6 +551,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Account Name</t>
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>Sent</t>
   </si>
   <si>
     <t>Richard Eldridge 1612 Latimer Street, Philadelphia, PA 19103</t>
@@ -83,9 +80,6 @@
 la puente CA 91746 </t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>BuffyGirl</t>
   </si>
   <si>
@@ -98,9 +92,16 @@
     <t>King Darkness</t>
   </si>
   <si>
+    <t>DML
+308 A Bartlett St.
+San Francisco, CA 94110</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
     <t>Chase Valdez
-2418 East Highway 66
-PMB 539
+2418 East Highway 66 PMB 539
 Gallup NM 87301</t>
   </si>
 </sst>
@@ -454,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,114 +467,92 @@
     <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Account Name</t>
   </si>
@@ -103,6 +103,25 @@
     <t>Chase Valdez
 2418 East Highway 66 PMB 539
 Gallup NM 87301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timo Kuehne
+Wittekindstr. 2a
+27570 Bremerhaven
+Germany
+</t>
+  </si>
+  <si>
+    <t>EndoSickness</t>
+  </si>
+  <si>
+    <t>the Josh</t>
+  </si>
+  <si>
+    <t>Josh Long
+308 Cline St
+Pleasant Hill, Mo
+64080</t>
   </si>
 </sst>
 </file>
@@ -455,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +572,22 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Account Name</t>
   </si>
@@ -122,6 +122,14 @@
 308 Cline St
 Pleasant Hill, Mo
 64080</t>
+  </si>
+  <si>
+    <t>Johnathan Webb
+231 Pinch Ridge Road
+Elkview, WV 25071</t>
+  </si>
+  <si>
+    <t>Spiderwebb13</t>
   </si>
 </sst>
 </file>
@@ -474,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +596,14 @@
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Account Name</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Spiderwebb13</t>
+  </si>
+  <si>
+    <t>Bloodyfreak</t>
+  </si>
+  <si>
+    <t>Laurent Meert                                                                                       Zeilstraat 6
+9000 Gent
+Oost-vlaanderen
+Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilthoniel </t>
+  </si>
+  <si>
+    <t>Renata Tesarczykova
+Hornicka 12
+73701 Cesky Tesin
+CZECH REPUBLIC (EU)</t>
   </si>
 </sst>
 </file>
@@ -482,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,11 +624,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.collectionstash.com/stashs/view/DarthWaller"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Account Name</t>
   </si>
@@ -148,6 +148,12 @@
 Hornicka 12
 73701 Cesky Tesin
 CZECH REPUBLIC (EU)</t>
+  </si>
+  <si>
+    <t>tacosunday</t>
+  </si>
+  <si>
+    <t>9212 55th ave oak lawn il 60453</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +644,14 @@
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Account Name</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>9212 55th ave oak lawn il 60453</t>
+  </si>
+  <si>
+    <t>darthmadden</t>
+  </si>
+  <si>
+    <t>Craig Mundt</t>
+  </si>
+  <si>
+    <t>20805 80th Ave W</t>
+  </si>
+  <si>
+    <t>Edmonds, WA 98026</t>
   </si>
 </sst>
 </file>
@@ -506,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +664,24 @@
       </c>
       <c r="B17" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Account Name</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Edmonds, WA 98026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crushader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tham Hua
+23 St Georges Avenue
+Caroline Springs
+Melbourne
+VIC 3023
+Australia</t>
   </si>
 </sst>
 </file>
@@ -518,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +694,14 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Account Name</t>
   </si>
@@ -178,6 +178,14 @@
 Melbourne
 VIC 3023
 Australia</t>
+  </si>
+  <si>
+    <t>furystorm</t>
+  </si>
+  <si>
+    <t>Andrew Barton
+2507 Kilmaron Circle
+Henderson, NV 89014</t>
   </si>
 </sst>
 </file>
@@ -530,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,12 +712,21 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.collectionstash.com/stashs/view/DarthWaller"/>
+    <hyperlink ref="A22" r:id="rId2" display="http://www.sideshowcollectors.com/forums/member.php?u=3992"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B25:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/stickers.xlsx
+++ b/doc/stickers.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
